--- a/node-jsonToExcel-master/output/20190818.xlsx
+++ b/node-jsonToExcel-master/output/20190818.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/catchDatas/node-jsonToExcel-master/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAACCD82-44A0-544E-90BD-8CA4718ADD9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75EE60F-B3A7-8E4B-AADA-9BDC429F8A14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190818" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="728">
   <si>
     <t>edenID</t>
   </si>
@@ -1610,9 +1610,6 @@
   </si>
   <si>
     <t>5304327</t>
-  </si>
-  <si>
-    <t>35677</t>
   </si>
   <si>
     <t>698749</t>
@@ -2272,9 +2269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2637,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2655,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -2914,7 +2914,7 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>713</v>
+      </c>
+      <c r="B29" t="s">
         <v>714</v>
-      </c>
-      <c r="B29" t="s">
-        <v>715</v>
       </c>
       <c r="C29" t="s">
         <v>230</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C35" t="s">
         <v>277</v>
@@ -3970,7 +3970,7 @@
         <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C42" t="s">
         <v>334</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
+        <v>717</v>
+      </c>
+      <c r="B48" t="s">
         <v>718</v>
-      </c>
-      <c r="B48" t="s">
-        <v>719</v>
       </c>
       <c r="C48" t="s">
         <v>379</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B61" t="s">
         <v>720</v>
-      </c>
-      <c r="B61" t="s">
-        <v>721</v>
       </c>
       <c r="C61" t="s">
         <v>481</v>
@@ -4767,281 +4767,281 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
+        <v>721</v>
+      </c>
+      <c r="B67" t="s">
         <v>722</v>
-      </c>
-      <c r="B67" t="s">
-        <v>723</v>
       </c>
       <c r="C67" t="s">
         <v>529</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2">
+        <v>35737</v>
+      </c>
+      <c r="E67" t="s">
         <v>530</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>531</v>
       </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
         <v>532</v>
       </c>
-      <c r="H67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>533</v>
-      </c>
-      <c r="J67" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
+        <v>534</v>
+      </c>
+      <c r="B68" t="s">
         <v>535</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>536</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>537</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>538</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
         <v>539</v>
       </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
         <v>540</v>
       </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>541</v>
-      </c>
-      <c r="J68" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
+        <v>542</v>
+      </c>
+      <c r="B69" t="s">
         <v>543</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>544</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>545</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>546</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>547</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>548</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
         <v>549</v>
       </c>
-      <c r="H69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>550</v>
-      </c>
-      <c r="J69" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
+        <v>551</v>
+      </c>
+      <c r="B70" t="s">
         <v>552</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>553</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>554</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>555</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
         <v>556</v>
       </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
         <v>557</v>
       </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>558</v>
-      </c>
-      <c r="J70" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>559</v>
+      </c>
+      <c r="B71" t="s">
         <v>560</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>561</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>562</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>563</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
         <v>564</v>
       </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
         <v>565</v>
       </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>566</v>
-      </c>
-      <c r="J71" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
+        <v>567</v>
+      </c>
+      <c r="B72" t="s">
         <v>568</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>569</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>570</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>571</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
         <v>572</v>
       </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
         <v>573</v>
       </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>574</v>
-      </c>
-      <c r="J72" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
+        <v>575</v>
+      </c>
+      <c r="B73" t="s">
         <v>576</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>577</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>578</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>579</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
         <v>580</v>
       </c>
-      <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
         <v>581</v>
       </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>582</v>
-      </c>
-      <c r="J73" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
+        <v>583</v>
+      </c>
+      <c r="B74" t="s">
         <v>584</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>585</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>586</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>587</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
         <v>588</v>
       </c>
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
         <v>589</v>
       </c>
-      <c r="H74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>590</v>
-      </c>
-      <c r="J74" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
+        <v>591</v>
+      </c>
+      <c r="B75" t="s">
         <v>592</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>593</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>594</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>595</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
         <v>596</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>597</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -5050,47 +5050,47 @@
         <v>274</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
+        <v>598</v>
+      </c>
+      <c r="B76" t="s">
         <v>599</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>600</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>601</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>602</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>603</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>604</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
         <v>605</v>
       </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>606</v>
-      </c>
-      <c r="J76" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5103,121 +5103,121 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
+        <v>607</v>
+      </c>
+      <c r="B78" t="s">
         <v>608</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>609</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>610</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>611</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
         <v>612</v>
       </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
         <v>613</v>
       </c>
-      <c r="H78" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>614</v>
-      </c>
-      <c r="J78" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
+        <v>615</v>
+      </c>
+      <c r="B79" t="s">
         <v>616</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>617</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>618</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>619</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>620</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>621</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
         <v>622</v>
       </c>
-      <c r="H79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>623</v>
-      </c>
-      <c r="J79" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
+        <v>624</v>
+      </c>
+      <c r="B80" t="s">
         <v>625</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>626</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>627</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>628</v>
-      </c>
-      <c r="E80" t="s">
-        <v>629</v>
       </c>
       <c r="F80" t="s">
         <v>136</v>
       </c>
       <c r="G80" t="s">
+        <v>629</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
         <v>630</v>
       </c>
-      <c r="H80" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>631</v>
-      </c>
-      <c r="J80" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
+        <v>632</v>
+      </c>
+      <c r="B81" t="s">
         <v>633</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>634</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>635</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>636</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>637</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>638</v>
-      </c>
-      <c r="G81" t="s">
-        <v>639</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
@@ -5226,295 +5226,295 @@
         <v>423</v>
       </c>
       <c r="J81" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
+        <v>640</v>
+      </c>
+      <c r="B82" t="s">
         <v>641</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>642</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>643</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>644</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
         <v>645</v>
       </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
         <v>646</v>
       </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>647</v>
-      </c>
-      <c r="J82" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
+        <v>648</v>
+      </c>
+      <c r="B83" t="s">
         <v>649</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>650</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>651</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>652</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
         <v>653</v>
       </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
         <v>654</v>
       </c>
-      <c r="H83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>655</v>
-      </c>
-      <c r="J83" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>656</v>
+      </c>
+      <c r="B84" t="s">
         <v>657</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>658</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>659</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>660</v>
-      </c>
-      <c r="E84" t="s">
-        <v>661</v>
       </c>
       <c r="F84" t="s">
         <v>509</v>
       </c>
       <c r="G84" t="s">
+        <v>661</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
         <v>662</v>
       </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>663</v>
-      </c>
-      <c r="J84" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
+        <v>723</v>
+      </c>
+      <c r="B85" t="s">
         <v>724</v>
       </c>
-      <c r="B85" t="s">
-        <v>725</v>
-      </c>
       <c r="C85" t="s">
+        <v>664</v>
+      </c>
+      <c r="D85" t="s">
         <v>665</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>666</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
         <v>667</v>
       </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
         <v>668</v>
       </c>
-      <c r="H85" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>669</v>
-      </c>
-      <c r="J85" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
+        <v>670</v>
+      </c>
+      <c r="B86" t="s">
         <v>671</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>672</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>673</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>674</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
         <v>675</v>
       </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
         <v>676</v>
       </c>
-      <c r="H86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>677</v>
-      </c>
-      <c r="J86" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
+        <v>678</v>
+      </c>
+      <c r="B87" t="s">
         <v>679</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>680</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>681</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>682</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>683</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>684</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
         <v>685</v>
       </c>
-      <c r="H87" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>686</v>
-      </c>
-      <c r="J87" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
+        <v>687</v>
+      </c>
+      <c r="B88" t="s">
         <v>688</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>689</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>690</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>691</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
         <v>692</v>
       </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>620</v>
+      </c>
+      <c r="J88" t="s">
         <v>693</v>
-      </c>
-      <c r="H88" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s">
-        <v>621</v>
-      </c>
-      <c r="J88" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>694</v>
+      </c>
+      <c r="B89" t="s">
         <v>695</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>696</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>697</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>698</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>699</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>700</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
         <v>701</v>
       </c>
-      <c r="H89" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>702</v>
-      </c>
-      <c r="J89" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
+        <v>703</v>
+      </c>
+      <c r="B90" t="s">
         <v>704</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>705</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>706</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>707</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
         <v>708</v>
       </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
         <v>709</v>
       </c>
-      <c r="H90" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>710</v>
-      </c>
-      <c r="J90" t="s">
-        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5528,7 +5528,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:J7 A10:J28 A8:A9 C8:J9 A30:J34 C29:J29 A36:J41 A35 C35:J35 A43:J47 A42 C42:J42 A49:J60 C48:J48 A62:J66 C61:J61 A78:J84 C67:J67 A86:J90 C85:J85 A68:J76 B1:J1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:J7 A10:J28 A8:A9 C8:J9 A30:J34 C29:J29 A36:J41 A35 C35:J35 A43:J47 A42 C42:J42 A49:J60 C48:J48 A62:J66 C61:J61 A78:J84 C67 A86:J90 C85:J85 A68:J76 B1:J1 E67:J67" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>